--- a/Documentation/Ion data.xlsx
+++ b/Documentation/Ion data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Documents\0Schoolwork\PyCrystalField-mod\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F8E78-A834-477B-A9D1-AE01B4BEF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFABFC-3C7E-4DB5-8A68-F84C8159B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="7590" windowHeight="12765" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="249">
   <si>
     <t>Cu2+</t>
   </si>
@@ -589,13 +589,2590 @@
   </si>
   <si>
     <t>Bi4+</t>
+  </si>
+  <si>
+    <t>[Ar]3d2</t>
+  </si>
+  <si>
+    <t>[Ar]3d</t>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>At. Num.</t>
+  </si>
+  <si>
+    <t>Elec. Config.</t>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>[Ne]3s2 3p6</t>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ar]3d3 </t>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Ar]3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Kr]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Cd3+</t>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>Re3+</t>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Os5+</t>
+  </si>
+  <si>
+    <t>Os7+</t>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>Ir5+</t>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Xe]4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Hg]6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[Hg]6</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,16 +3188,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -628,17 +3227,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,1505 +3588,2416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE04BBD-90C3-4E37-AA26-35BDFE00485E}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="I2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>121</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.69899999999999995</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.075</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>154</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.58699999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>168</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.79300000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>201</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.47</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.45600000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>248</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="I8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>234</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.51500000000000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>276</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.41599999999999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>329</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>383</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>322</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.47499999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>358</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.371</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>405</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.316</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>479</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>542</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>-401</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.40200000000000002</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>476</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>-527</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.36</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>-619</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.30199999999999999</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>787</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>-643</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>-749</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>-829</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
         <v>160</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>290</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="I33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
         <v>161</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>347</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>428</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="I36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
         <v>163</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>500</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="I38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>677</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.96</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.573</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="G39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="I40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>714</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>836</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>972</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="I43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1031</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="I44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1150</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="G46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="I47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>-942</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="I48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1177</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="G49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1350</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="I50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>1700</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="I51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="I52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>-1194</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="I53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>-1360</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.61</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.64900000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="G54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1350</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="I55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>-1293</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.70499999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>-1211</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>0.55500000000000005</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="G57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>-1830</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60">
+        <v>-1843</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61">
+        <v>-1930</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64">
+        <v>-2325</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71">
+        <v>1370</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72">
+        <v>1877</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75">
+        <v>2000</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G58">
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76">
+        <v>2254</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77">
+        <v>2643</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="I77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G59">
+      <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60">
-        <v>-1843</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="I78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>2500</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80">
+        <v>2686</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>3108</v>
+      </c>
+      <c r="D81">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="E81">
+        <v>1.2311000000000001</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>3483</v>
+      </c>
+      <c r="D82">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E82">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G60">
+      <c r="H82">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="I82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>74</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>5070</v>
+      </c>
+      <c r="D83">
+        <v>0.1205</v>
+      </c>
+      <c r="E83">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85">
+        <v>5800</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>3300</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87">
+        <v>4398</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>-2200</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91">
+        <v>4000</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>76</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92">
+        <v>4500</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>5200</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G61">
+      <c r="H93">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="I93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>76</v>
+      </c>
+      <c r="B94" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94">
+        <v>5200</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G62">
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>76</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="I95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>77</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>-3900</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>-3050</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>77</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99">
+        <v>5500</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>77</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100">
+        <v>6000</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>78</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101">
+        <v>-4500</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>78</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102">
+        <v>-3700</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>79</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G63">
+      <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>169</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="I103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>-5200</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>80</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>80</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G64">
+      <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="I106" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>81</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G65">
+      <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="I108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>81</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G66">
+      <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="I109" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G67">
+      <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>171</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="I111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>82</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G68">
+      <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>116</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="I112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G69">
+      <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70">
-        <v>1370</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="I113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>173</v>
-      </c>
-      <c r="B71">
-        <v>1877</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>83</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G72">
+      <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74">
-        <v>2000</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75">
-        <v>2254</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76">
-        <v>2643</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="I116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>83</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G77">
+      <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78">
-        <v>2500</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>2686</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80">
-        <v>3108</v>
-      </c>
-      <c r="C80">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="D80">
-        <v>1.2311000000000001</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81">
-        <v>3483</v>
-      </c>
-      <c r="C81">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="D81">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82">
-        <v>5070</v>
-      </c>
-      <c r="C82">
-        <v>0.1205</v>
-      </c>
-      <c r="D82">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84">
-        <v>3300</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85">
-        <v>4398</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87">
-        <v>-2200</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89">
-        <v>4000</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90">
-        <v>5200</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92">
-        <v>-3900</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93">
-        <v>-3050</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95">
-        <v>6000</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96">
-        <v>-4500</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97">
-        <v>-3700</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98">
-        <v>-5200</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>106</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>107</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>178</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>179</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>112</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>180</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>181</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>182</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>183</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
+      <c r="I118" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Ion data.xlsx
+++ b/Documentation/Ion data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Documents\0Schoolwork\PyCrystalField-mod\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFABFC-3C7E-4DB5-8A68-F84C8159B1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAB19D-8C6A-4A50-B0AB-63A16E267815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
+    <workbookView xWindow="11730" yWindow="15" windowWidth="11880" windowHeight="12765" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="1" r:id="rId1"/>
@@ -3205,7 +3205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3215,6 +3215,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,7 +3258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3254,6 +3266,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3591,8 +3608,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3784,6 +3801,12 @@
       <c r="C8">
         <v>248</v>
       </c>
+      <c r="D8">
+        <v>0.39</v>
+      </c>
+      <c r="E8">
+        <v>0.29499999999999998</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3863,43 +3886,57 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>329</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="D12" s="7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>383</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="7">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="7" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3998,43 +4035,57 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>479</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="D18" s="7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>542</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="D19" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="7" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4159,26 +4210,26 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>787</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4328,23 +4379,30 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>290</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="D33" s="7">
+        <v>1.577</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="7">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="7" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4365,618 +4423,737 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>347</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>3</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>428</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="D36" s="7">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3.09</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>3</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>500</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="D37" s="7">
+        <v>2.645</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>2</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>677</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
         <v>0.96</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="7">
         <v>1.573</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>3</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>714</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="D41" s="7">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>2</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>836</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="D42" s="7">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>3</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>972</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="7">
+        <v>0.747</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>3</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="7">
         <v>1031</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="D44" s="7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="7">
         <v>1150</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="7">
         <v>0.752</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>3</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="7">
         <v>-942</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="D48" s="7">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1.052</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>2</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>44</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="7">
         <v>1177</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="7">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="7">
         <v>0.79</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="7">
         <v>1350</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="D50" s="7">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>2</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>44</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>1700</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="D51" s="7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>3</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>45</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>-1194</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="D53" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="7">
         <v>3</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>45</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>-1360</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
         <v>0.61</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>0.64900000000000002</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="7">
         <v>2</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="7">
         <v>1350</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="D55" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>46</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="7">
         <v>-1293</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>0.70499999999999996</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="7">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>46</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="7">
         <v>-1211</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="7">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="7">
         <v>0.54</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="7">
         <v>3</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>46</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="7">
         <v>-1830</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="D58" s="7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="7">
         <v>2</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>47</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>47</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="7">
         <v>-1843</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="D60" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="7">
         <v>2</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>47</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="7">
         <v>-1930</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="D61" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="7">
         <v>3</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>48</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>48</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="7">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>48</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="7">
         <v>-2325</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="D64" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="7">
         <v>2</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5082,43 +5259,57 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="7">
         <v>1370</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="D71" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="E71" s="7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="7">
         <v>3</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="7">
         <v>1877</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="D72" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="7">
         <v>2</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5156,63 +5347,66 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>2000</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="F75" s="6"/>
+      <c r="G75" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>3</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>2254</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <v>3</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>73</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>2643</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="6"/>
+      <c r="G77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <v>2</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5233,43 +5427,45 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>74</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>2500</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <v>2</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>74</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>2686</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="5">
         <v>3</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5283,11 +5479,11 @@
       <c r="C81">
         <v>3108</v>
       </c>
-      <c r="D81">
-        <v>0.88039999999999996</v>
-      </c>
-      <c r="E81">
-        <v>1.2311000000000001</v>
+      <c r="D81" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="E81" s="9">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>33</v>
@@ -5312,11 +5508,11 @@
       <c r="C82">
         <v>3483</v>
       </c>
-      <c r="D82">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="E82">
-        <v>0.99299999999999999</v>
+      <c r="D82" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E82" s="9">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>33</v>
@@ -5342,10 +5538,10 @@
         <v>5070</v>
       </c>
       <c r="D83">
-        <v>0.1205</v>
+        <v>0.121</v>
       </c>
       <c r="E83">
-        <v>3.1199999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>33</v>
@@ -5377,63 +5573,66 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>75</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>5800</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="5">
         <v>2</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>75</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>3300</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="5">
         <v>3</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>75</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>4398</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="5">
         <v>2</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5454,23 +5653,24 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>76</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>-2200</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <v>2</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5491,83 +5691,93 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>76</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>4000</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <v>2</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>76</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>4500</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>3</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>76</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>5200</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="5">
         <v>3</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
         <v>76</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="7">
         <v>5200</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="D94" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E94" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="7">
         <v>2</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5588,43 +5798,45 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>77</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>-3900</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="5">
         <v>3</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>77</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>-3050</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="F97" s="6"/>
+      <c r="G97" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="5">
         <v>2</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5645,83 +5857,87 @@
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>77</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>5500</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="5">
         <v>2</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>77</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>6000</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="F100" s="6"/>
+      <c r="G100" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="5">
         <v>3</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>78</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>-4500</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <v>3</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>78</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>-3700</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="5">
         <v>2</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5742,23 +5958,24 @@
         <v>243</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>79</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>-5200</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="F104" s="6"/>
+      <c r="G104" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <v>3</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="5" t="s">
         <v>242</v>
       </c>
     </row>

--- a/Documentation/Ion data.xlsx
+++ b/Documentation/Ion data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Documents\0Schoolwork\PyCrystalField-mod\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EAB19D-8C6A-4A50-B0AB-63A16E267815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C3F85-E88D-49C1-A42B-005A2A9103DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="15" windowWidth="11880" windowHeight="12765" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
+    <workbookView xWindow="12225" yWindow="30" windowWidth="11880" windowHeight="12765" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="250">
   <si>
     <t>Cu2+</t>
   </si>
@@ -3166,6 +3166,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3268,8 +3271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3608,8 +3609,8 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81:E82"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3712,6 +3713,9 @@
       <c r="E4">
         <v>0.58699999999999997</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3755,6 +3759,9 @@
       <c r="E6">
         <v>0.79300000000000004</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>157</v>
       </c>
@@ -3781,6 +3788,9 @@
       <c r="E7">
         <v>0.45600000000000002</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3807,6 +3817,9 @@
       <c r="E8">
         <v>0.29499999999999998</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3850,6 +3863,9 @@
       <c r="E10">
         <v>0.60499999999999998</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>164</v>
       </c>
@@ -3876,6 +3892,9 @@
       <c r="E11">
         <v>0.36199999999999999</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>157</v>
       </c>
@@ -3886,57 +3905,61 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>329</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>0.34899999999999998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>383</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>0.17399999999999999</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3973,6 +3996,9 @@
       <c r="E15">
         <v>0.47499999999999998</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>165</v>
       </c>
@@ -3999,6 +4025,9 @@
       <c r="E16">
         <v>0.29299999999999998</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>164</v>
       </c>
@@ -4025,6 +4054,9 @@
       <c r="E17">
         <v>0.20100000000000001</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>157</v>
       </c>
@@ -4035,57 +4067,61 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>479</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>0.27600000000000002</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>542</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>0.245</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>0.112</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4122,6 +4158,9 @@
       <c r="E21">
         <v>0.38</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>164</v>
       </c>
@@ -4148,6 +4187,9 @@
       <c r="E22">
         <v>0.24</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>165</v>
       </c>
@@ -4174,6 +4216,9 @@
       <c r="E23">
         <v>0.31</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>157</v>
       </c>
@@ -4200,6 +4245,9 @@
       <c r="E24">
         <v>0.2</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>164</v>
       </c>
@@ -4249,6 +4297,9 @@
       <c r="E26">
         <v>0.25600000000000001</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>164</v>
       </c>
@@ -4275,6 +4326,9 @@
       <c r="E27">
         <v>0.16800000000000001</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>157</v>
       </c>
@@ -4318,6 +4372,9 @@
       <c r="E29">
         <v>0.21</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>30</v>
       </c>
@@ -4379,30 +4436,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>290</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33">
         <v>1.577</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>4.4080000000000004</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4444,716 +4503,748 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>40</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>428</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36">
         <v>1.3129999999999999</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>3.09</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36">
         <v>3</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>40</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>500</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37">
         <v>2.645</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>2.0129999999999999</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37">
         <v>2</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>40</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>41</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>677</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>0.96</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>1.573</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>41</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>42</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>714</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>1.7050000000000001</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41">
         <v>2</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>836</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42">
         <v>0.83899999999999997</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42">
         <v>3</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>972</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>0.747</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>0.91600000000000004</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43">
         <v>3</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>1031</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44">
         <v>0.67600000000000005</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
+      <c r="F44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>1150</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>0.752</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>-942</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48">
         <v>0.75700000000000001</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>1.052</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48">
         <v>2</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>44</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>1177</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>0.79</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>44</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>1350</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50">
         <v>0.60699999999999998</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <v>0.61299999999999999</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50">
         <v>2</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>1700</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51">
         <v>0.51500000000000001</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <v>0.42</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51">
         <v>3</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>44</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>45</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53">
         <v>-1194</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53">
         <v>0.68</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53">
         <v>0.85</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53">
         <v>3</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>45</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54">
         <v>-1360</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54">
         <v>0.61</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54">
         <v>0.64900000000000002</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54">
         <v>2</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>45</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55">
         <v>1350</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>46</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56">
         <v>-1293</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56">
         <v>0.70499999999999996</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56">
         <v>3</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>46</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57">
         <v>-1211</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57">
         <v>0.54</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>46</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>-1830</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58">
         <v>0.55300000000000005</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <v>0.53500000000000003</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="F58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>47</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>47</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60">
         <v>-1843</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60">
         <v>0.55900000000000005</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60">
         <v>0.57899999999999996</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60">
         <v>2</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>47</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61">
         <v>-1930</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61">
         <v>0.50700000000000001</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61">
         <v>0.45</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8" t="s">
+      <c r="F61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61">
         <v>3</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>48</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" t="s">
         <v>168</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>48</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>48</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>-2325</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64">
         <v>0.38300000000000001</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64">
         <v>2</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5259,57 +5350,61 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>72</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" t="s">
         <v>172</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71">
         <v>1370</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71">
         <v>0.159</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71">
         <v>6.3E-2</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8" t="s">
+      <c r="F71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71">
         <v>3</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>72</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72">
         <v>1877</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72">
         <v>0.01</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8" t="s">
+      <c r="F72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5357,7 +5452,9 @@
       <c r="C75" s="5">
         <v>2000</v>
       </c>
-      <c r="F75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G75" s="6" t="s">
         <v>157</v>
       </c>
@@ -5378,7 +5475,9 @@
       <c r="C76" s="5">
         <v>2254</v>
       </c>
-      <c r="F76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G76" s="6" t="s">
         <v>31</v>
       </c>
@@ -5399,7 +5498,9 @@
       <c r="C77" s="5">
         <v>2643</v>
       </c>
-      <c r="F77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G77" s="6" t="s">
         <v>30</v>
       </c>
@@ -5437,7 +5538,9 @@
       <c r="C79" s="5">
         <v>2500</v>
       </c>
-      <c r="F79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G79" s="6" t="s">
         <v>164</v>
       </c>
@@ -5458,7 +5561,9 @@
       <c r="C80" s="5">
         <v>2686</v>
       </c>
-      <c r="F80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G80" s="6" t="s">
         <v>157</v>
       </c>
@@ -5479,10 +5584,10 @@
       <c r="C81">
         <v>3108</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="7">
         <v>0.125</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="F81" s="1" t="s">
@@ -5508,10 +5613,10 @@
       <c r="C82">
         <v>3483</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -5583,7 +5688,9 @@
       <c r="C85" s="5">
         <v>5800</v>
       </c>
-      <c r="F85" s="6"/>
+      <c r="F85" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G85" s="6" t="s">
         <v>164</v>
       </c>
@@ -5604,7 +5711,9 @@
       <c r="C86" s="5">
         <v>3300</v>
       </c>
-      <c r="F86" s="6"/>
+      <c r="F86" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G86" s="6" t="s">
         <v>157</v>
       </c>
@@ -5625,7 +5734,9 @@
       <c r="C87" s="5">
         <v>4398</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G87" s="6" t="s">
         <v>30</v>
       </c>
@@ -5663,7 +5774,9 @@
       <c r="C89" s="5">
         <v>-2200</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="G89" s="6" t="s">
         <v>164</v>
       </c>
@@ -5701,7 +5814,9 @@
       <c r="C91" s="5">
         <v>4000</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G91" s="6" t="s">
         <v>164</v>
       </c>
@@ -5722,7 +5837,9 @@
       <c r="C92" s="5">
         <v>4500</v>
       </c>
-      <c r="F92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G92" s="6" t="s">
         <v>157</v>
       </c>
@@ -5743,7 +5860,9 @@
       <c r="C93" s="5">
         <v>5200</v>
       </c>
-      <c r="F93" s="6"/>
+      <c r="F93" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G93" s="6" t="s">
         <v>31</v>
       </c>
@@ -5754,30 +5873,32 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>76</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94">
         <v>5200</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94">
         <v>0.06</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8" t="s">
+      <c r="F94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94">
         <v>2</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5808,7 +5929,9 @@
       <c r="C96" s="5">
         <v>-3900</v>
       </c>
-      <c r="F96" s="6"/>
+      <c r="F96" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="G96" s="6" t="s">
         <v>157</v>
       </c>
@@ -5829,7 +5952,9 @@
       <c r="C97" s="5">
         <v>-3050</v>
       </c>
-      <c r="F97" s="6"/>
+      <c r="F97" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="G97" s="6" t="s">
         <v>164</v>
       </c>
@@ -5867,7 +5992,9 @@
       <c r="C99" s="5">
         <v>5500</v>
       </c>
-      <c r="F99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G99" s="6" t="s">
         <v>164</v>
       </c>
@@ -5888,7 +6015,9 @@
       <c r="C100" s="5">
         <v>6000</v>
       </c>
-      <c r="F100" s="6"/>
+      <c r="F100" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G100" s="6" t="s">
         <v>157</v>
       </c>
@@ -5909,7 +6038,9 @@
       <c r="C101" s="5">
         <v>-4500</v>
       </c>
-      <c r="F101" s="6"/>
+      <c r="F101" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G101" s="6" t="s">
         <v>31</v>
       </c>
@@ -5930,7 +6061,9 @@
       <c r="C102" s="5">
         <v>-3700</v>
       </c>
-      <c r="F102" s="6"/>
+      <c r="F102" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G102" s="6" t="s">
         <v>164</v>
       </c>
@@ -5968,7 +6101,9 @@
       <c r="C104" s="5">
         <v>-5200</v>
       </c>
-      <c r="F104" s="6"/>
+      <c r="F104" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="G104" s="6" t="s">
         <v>31</v>
       </c>

--- a/Documentation/Ion data.xlsx
+++ b/Documentation/Ion data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Documents\0Schoolwork\PyCrystalField-mod\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7C3F85-E88D-49C1-A42B-005A2A9103DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16A357-F14C-4F09-B54A-792E8A225BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="30" windowWidth="11880" windowHeight="12765" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{EFD51521-650C-4408-8F21-64BF005F46EA}"/>
   </bookViews>
   <sheets>
     <sheet name="TM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="252">
   <si>
     <t>Cu2+</t>
   </si>
@@ -1437,9 +1437,6 @@
     </r>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <r>
       <t>[Kr]4</t>
     </r>
@@ -3169,12 +3166,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>r^2 (bohr units)</t>
+  </si>
+  <si>
+    <t>r^4 (bohr units)</t>
+  </si>
+  <si>
+    <t>In PCF v2.3.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3208,30 +3217,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3264,19 +3255,40 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3606,2750 +3618,4007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE04BBD-90C3-4E37-AA26-35BDFE00485E}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="5.85546875" style="4" customWidth="1"/>
+    <col min="3" max="6" width="6.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="5.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="7">
+        <f>$E2*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <f>$F2*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="4">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="4">
         <v>121</v>
       </c>
-      <c r="D3">
+      <c r="G3" s="7">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E3">
+      <c r="H3" s="7">
         <v>1.075</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="4">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="4">
         <v>154</v>
       </c>
-      <c r="D4">
+      <c r="G4" s="7">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E4">
+      <c r="H4" s="7">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="7">
+        <f>$E5*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f>$F5*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="4">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="4">
         <v>168</v>
       </c>
-      <c r="D6">
+      <c r="G6" s="7">
         <v>0.59499999999999997</v>
       </c>
-      <c r="E6">
+      <c r="H6" s="7">
         <v>0.79300000000000004</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H6">
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="4">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="4">
         <v>201</v>
       </c>
-      <c r="D7">
+      <c r="G7" s="7">
         <v>0.47</v>
       </c>
-      <c r="E7">
+      <c r="H7" s="7">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
+      <c r="K7" s="4">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="4">
         <v>248</v>
       </c>
-      <c r="D8">
-        <v>0.39</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.718</v>
+      </c>
+      <c r="G8" s="7">
+        <f>$E8*(5.29177*10^-1)^2</f>
+        <v>0.38755916350333602</v>
+      </c>
+      <c r="H8" s="7">
+        <f>$F8*(5.29177*10^-1)^4</f>
+        <v>0.29155012027991134</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7">
+        <f>$E9*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <f>$F9*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="4">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="4">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4">
+        <v>329</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="G12" s="7">
+        <f>$E12*(5.29177*10^-1)^2</f>
+        <v>0.34723508868796005</v>
+      </c>
+      <c r="H12" s="7">
+        <f>$F12*(5.29177*10^-1)^4</f>
+        <v>0.23760001733408589</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
+        <v>383</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.077</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" ref="G13:G14" si="0">$E13*(5.29177*10^-1)^2</f>
+        <v>0.30159047622333301</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" ref="H13:H14" si="1">$F13*(5.29177*10^-1)^4</f>
+        <v>0.17212278483442855</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>322</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>358</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.371</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="4">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>405</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.316</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4">
+        <v>479</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" ref="G18:G20" si="2">$E18*(5.29177*10^-1)^2</f>
+        <v>0.27400768893642652</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H20" si="3">$F18*(5.29177*10^-1)^4</f>
+        <v>0.14412832734655112</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4">
+        <v>542</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.2437366299951616</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1104095130054102</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="4">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-401</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="4">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4">
+        <v>476</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="4">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-527</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="4">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-619</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4">
+        <v>787</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.034</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25" si="4">$E25*(5.29177*10^-1)^2</f>
+        <v>0.20638085513147303</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25" si="5">$F25*(5.29177*10^-1)^4</f>
+        <v>8.1081986113348131E-2</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="4">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-643</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="4">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-749</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" ref="G28" si="6">$E28*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28" si="7">$F28*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="4">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-829</v>
+      </c>
+      <c r="G29" s="7">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H29" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8">
+      <c r="K29" s="4">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L29" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" ref="G30:G55" si="8">$E30*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" ref="H30:H55" si="9">$F30*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="4">
+        <v>290</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="F33" s="4">
+        <v>53.22</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="8"/>
+        <v>1.5345550693629202</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="9"/>
+        <v>4.1732913935709739</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>39</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="4">
+        <v>347</v>
+      </c>
+      <c r="E35" s="4">
+        <v>14.65</v>
+      </c>
+      <c r="F35" s="4">
+        <v>319.8</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="8"/>
+        <v>4.1024145558698502</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="9"/>
+        <v>25.077387968132236</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="4">
+        <v>428</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4.577</v>
+      </c>
+      <c r="F36" s="4">
+        <v>37.49</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="8"/>
+        <v>1.2816895168748332</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="9"/>
+        <v>2.9398101154636569</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="4">
+        <v>500</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3.827</v>
+      </c>
+      <c r="F37" s="4">
+        <v>24.64</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="8"/>
+        <v>1.071668293878083</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="9"/>
+        <v>1.9321664775946787</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4">
+        <v>677</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.3380000000000001</v>
+      </c>
+      <c r="F39" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="8"/>
+        <v>0.93473445648420217</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4820595140641</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4">
+        <v>42</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4">
+        <v>714</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="F41" s="4">
+        <v>20.82</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="8"/>
+        <v>0.94929592794531015</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6326179408896595</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4">
+        <v>836</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="F42" s="4">
+        <v>14.82</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="8"/>
+        <v>0.82468333563390506</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1621228570597866</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="4">
+        <v>972</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11.31</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="8"/>
+        <v>0.73535430878595409</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="9"/>
+        <v>0.88688323301931082</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="4">
+        <v>3</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1031</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="F44" s="4">
+        <v>9.0269999999999992</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="8"/>
+        <v>0.66674737594034905</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="9"/>
+        <v>0.70785985362204396</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="4">
+        <v>43</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1150</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.752</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.752</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" s="4">
+        <v>3</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4">
+        <v>43</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-942</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="F48" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="8"/>
+        <v>0.74375515770582412</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="9"/>
+        <v>1.011564430234227</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1177</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="4">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1350</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="F50" s="4">
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="8"/>
+        <v>0.59898052798673096</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="9"/>
+        <v>0.59564677612861927</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="4">
+        <v>44</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1700</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.22</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="8"/>
+        <v>0.50965150113878011</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="9"/>
+        <v>0.40933072293198958</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4">
+        <v>44</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4">
+        <v>45</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-1194</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="F53" s="4">
+        <v>10.44</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="8"/>
+        <v>0.66786748912966498</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="9"/>
+        <v>0.81866144586397915</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53" s="4">
+        <v>3</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-1360</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1350</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="8"/>
+        <v>0.54577515149422107</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.49715647191356588</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" s="4">
+        <v>46</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-1293</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="4">
+        <v>3</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="4">
+        <v>46</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-1211</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K57" s="4">
+        <v>3</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="4">
+        <v>46</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-1830</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="F58" s="4">
+        <v>6.6130000000000004</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" ref="G58:G118" si="10">$E58*(5.29177*10^-1)^2</f>
+        <v>0.5452150948995631</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:H118" si="11">$F58*(5.29177*10^-1)^4</f>
+        <v>0.51856399822782517</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="4">
+        <v>47</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="4">
+        <v>47</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-1843</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1.964</v>
+      </c>
+      <c r="F60" s="4">
+        <v>7.1310000000000002</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="10"/>
+        <v>0.54997557595415603</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="11"/>
+        <v>0.55918340713180414</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="4">
+        <v>47</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-1930</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="10"/>
+        <v>0.49929045413760703</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="11"/>
+        <v>0.43685468533603711</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="4">
+        <v>3</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="4">
+        <v>48</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="4">
+        <v>48</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="4">
+        <v>48</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-2325</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="F64" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="10"/>
+        <v>0.73199396921800608</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7392634932244309</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="4">
+        <v>2</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="4">
+        <v>49</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="4">
+        <v>49</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="4">
+        <v>49</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="4">
+        <v>50</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4">
+        <v>50</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="4">
+        <v>50</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4">
+        <v>72</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1370</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4.899</v>
+      </c>
+      <c r="F71" s="4">
+        <v>41.88</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3718586286147711</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="11"/>
+        <v>3.2840556851325142</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="4">
+        <v>3</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="4">
+        <v>72</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1877</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4.1479999999999997</v>
+      </c>
+      <c r="F72" s="4">
+        <v>28.21</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="10"/>
+        <v>1.161557377320692</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2121110524734533</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="4">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="7">
+        <f>$E73*(5.29177*10^-1)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <f>$F73*(5.29177*10^-1)^4</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="4">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K74" s="4">
+        <v>3</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4">
+        <v>73</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="F75" s="4">
+        <v>32.46</v>
+      </c>
+      <c r="G75" s="7">
+        <f>$E75*(5.29177*10^-1)^2</f>
+        <v>1.2091621878666221</v>
+      </c>
+      <c r="H75" s="7">
+        <f>$F75*(5.29177*10^-1)^4</f>
+        <v>2.5453784035196132</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K75" s="4">
+        <v>3</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="4">
+        <v>73</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2254</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3.7389999999999999</v>
+      </c>
+      <c r="F76" s="4">
+        <v>22.95</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="10"/>
+        <v>1.047025803713131</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7996436956492645</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="4">
+        <v>3</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="4">
+        <v>73</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2643</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3.335</v>
+      </c>
+      <c r="F77" s="4">
+        <v>17.53</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="10"/>
+        <v>0.93389437159221511</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="11"/>
+        <v>1.3746298032562791</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="4">
+        <v>2</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="4">
+        <v>73</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="4">
+        <v>74</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2500</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3.855</v>
+      </c>
+      <c r="F79" s="4">
+        <v>25.82</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0795090862032952</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0246971774145539</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79" s="4">
+        <v>2</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="4">
+        <v>74</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2686</v>
+      </c>
+      <c r="E80" s="4">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="F80" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="10"/>
+        <v>0.95013601283729709</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4820595140641</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K80" s="4">
+        <v>3</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="4">
+        <v>74</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3108</v>
+      </c>
+      <c r="E81" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="F81" s="4">
+        <v>14.79</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" si="10"/>
+        <v>0.85688658982674015</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="11"/>
+        <v>1.1597703816406371</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="4">
+        <v>3</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="4">
+        <v>74</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3483</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2.8039999999999998</v>
+      </c>
+      <c r="F82" s="4">
+        <v>12.06</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" si="10"/>
+        <v>0.78519934571051608</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="11"/>
+        <v>0.94569511849804488</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="4">
+        <v>2</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="4">
+        <v>74</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D83" s="4">
+        <v>5070</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11335545475877921</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7045625735487203E-2</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9">
+      <c r="K83" s="4">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+      <c r="L83" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="4">
+        <v>75</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K84" s="4">
+        <v>2</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="4">
+        <v>75</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D10">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D85" s="4">
+        <v>5800</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="F85" s="4">
+        <v>15.77</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="10"/>
+        <v>0.86780769342257114</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="11"/>
+        <v>1.2366179119995164</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H10">
+      <c r="K85" s="4">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>276</v>
-      </c>
-      <c r="D11">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="L85" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="4">
+        <v>75</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3300</v>
+      </c>
+      <c r="E86" s="4">
+        <v>2.819</v>
+      </c>
+      <c r="F86" s="4">
+        <v>12.57</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="10"/>
+        <v>0.78939977017045104</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="11"/>
+        <v>0.98568720062358406</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H11">
+      <c r="K86" s="4">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>329</v>
-      </c>
-      <c r="D12">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="E12">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="L86" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="4">
+        <v>75</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4398</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="F87" s="4">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="10"/>
+        <v>0.67822853613083811</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="11"/>
+        <v>0.69249034755026817</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K87" s="4">
+        <v>2</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="4">
+        <v>75</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="4">
+        <v>76</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="4">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="F89" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" si="10"/>
+        <v>0.88544947615429803</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="11"/>
+        <v>1.3565941583761341</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K89" s="4">
+        <v>2</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="4">
+        <v>76</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="4">
+        <v>76</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2.609</v>
+      </c>
+      <c r="F91" s="4">
+        <v>10.78</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" si="10"/>
+        <v>0.73059382773136106</v>
+      </c>
+      <c r="H91" s="7">
+        <f t="shared" si="11"/>
+        <v>0.84532283394767194</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K91" s="4">
+        <v>2</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="4">
+        <v>76</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E92" s="4">
+        <v>2.419</v>
+      </c>
+      <c r="F92" s="4">
+        <v>9.0210000000000008</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="10"/>
+        <v>0.67738845123885105</v>
+      </c>
+      <c r="H92" s="7">
+        <f t="shared" si="11"/>
+        <v>0.70738935853821427</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K92" s="4">
+        <v>3</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="4">
+        <v>76</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5200</v>
+      </c>
+      <c r="E93" s="4">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="F93" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="10"/>
+        <v>0.63398406515285599</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" si="11"/>
+        <v>0.60615449966748647</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12">
+      <c r="K93" s="4">
         <v>3</v>
       </c>
-      <c r="I12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>383</v>
-      </c>
-      <c r="D13">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="L93" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="4">
+        <v>76</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5200</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13">
+      <c r="K94" s="4">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="L94" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="4">
+        <v>76</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>322</v>
-      </c>
-      <c r="D15">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="4">
+        <v>77</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="4">
+        <v>-3900</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2.895</v>
+      </c>
+      <c r="F96" s="4">
+        <v>14.48</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="10"/>
+        <v>0.81068192076745504</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="11"/>
+        <v>1.1354614689760938</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K96" s="4">
+        <v>3</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="4">
+        <v>77</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="4">
+        <v>-3050</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="F97" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="10"/>
+        <v>0.73591436538061217</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="11"/>
+        <v>0.8900198669115098</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="4">
+        <v>77</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>358</v>
-      </c>
-      <c r="D16">
-        <v>0.371</v>
-      </c>
-      <c r="E16">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="4">
+        <v>77</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2.258</v>
+      </c>
+      <c r="F99" s="4">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="10"/>
+        <v>0.6323038953688821</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="11"/>
+        <v>0.61721113413748852</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H16">
+      <c r="K99" s="4">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>405</v>
-      </c>
-      <c r="D17">
-        <v>0.316</v>
-      </c>
-      <c r="E17">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="L99" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="4">
+        <v>77</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2.121</v>
+      </c>
+      <c r="F100" s="4">
+        <v>6.798</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="10"/>
+        <v>0.59394001863480905</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" si="11"/>
+        <v>0.53307092997924621</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H17">
+      <c r="K100" s="4">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>479</v>
-      </c>
-      <c r="D18">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="E18">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="L100" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="4">
+        <v>78</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="4">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F101" s="4">
+        <v>12.26</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="10"/>
+        <v>0.74655544067911406</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="11"/>
+        <v>0.96137828795904057</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H18">
+      <c r="K101" s="4">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>542</v>
-      </c>
-      <c r="D19">
-        <v>0.245</v>
-      </c>
-      <c r="E19">
-        <v>0.112</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="L101" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="4">
+        <v>78</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="4">
+        <v>-3700</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="F102" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="10"/>
+        <v>0.63258392366621108</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="11"/>
+        <v>0.63516836317032865</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K102" s="4">
+        <v>2</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="4">
+        <v>79</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="4">
+        <v>79</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="4">
+        <v>-5200</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="F104" s="4">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="10"/>
+        <v>0.63538420663950113</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="11"/>
+        <v>0.66339806820012104</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="4">
+        <v>3</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="4">
+        <v>80</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4">
+        <v>80</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>-401</v>
-      </c>
-      <c r="D21">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E21">
-        <v>0.38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>476</v>
-      </c>
-      <c r="D22">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="E22">
-        <v>0.24</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>-527</v>
-      </c>
-      <c r="D23">
-        <v>0.36</v>
-      </c>
-      <c r="E23">
-        <v>0.31</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>-619</v>
-      </c>
-      <c r="D24">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5">
-        <v>787</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="5">
-        <v>3</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="4">
+        <v>81</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="4">
+        <v>81</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="4">
+        <v>81</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="4">
+        <v>82</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110" s="4">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>-643</v>
-      </c>
-      <c r="D26">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E26">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>-749</v>
-      </c>
-      <c r="D27">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="L110" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="4">
+        <v>82</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>-829</v>
-      </c>
-      <c r="D29">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="E29">
-        <v>0.21</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="4">
+        <v>82</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="4">
+        <v>82</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="4">
+        <v>83</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="4">
+        <v>83</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="K115" s="4">
+        <v>1</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="4">
+        <v>83</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="4">
+        <v>83</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="K117" s="4">
+        <v>0</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="4">
+        <v>83</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G118" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33">
-        <v>290</v>
-      </c>
-      <c r="D33">
-        <v>1.577</v>
-      </c>
-      <c r="E33">
-        <v>4.4080000000000004</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>40</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="5">
-        <v>347</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="5">
-        <v>3</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36">
-        <v>428</v>
-      </c>
-      <c r="D36">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="E36">
-        <v>3.09</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37">
-        <v>500</v>
-      </c>
-      <c r="D37">
-        <v>2.645</v>
-      </c>
-      <c r="E37">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <v>677</v>
-      </c>
-      <c r="D39">
-        <v>0.96</v>
-      </c>
-      <c r="E39">
-        <v>1.573</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>714</v>
-      </c>
-      <c r="D41">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E41">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>836</v>
-      </c>
-      <c r="D42">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="E42">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>972</v>
-      </c>
-      <c r="D43">
-        <v>0.747</v>
-      </c>
-      <c r="E43">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44">
-        <v>1031</v>
-      </c>
-      <c r="D44">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="E44">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>1150</v>
-      </c>
-      <c r="D46">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E46">
-        <v>0.752</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48">
-        <v>-942</v>
-      </c>
-      <c r="D48">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E48">
-        <v>1.052</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>44</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49">
-        <v>1177</v>
-      </c>
-      <c r="D49">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E49">
-        <v>0.79</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50">
-        <v>1350</v>
-      </c>
-      <c r="D50">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E50">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51">
-        <v>1700</v>
-      </c>
-      <c r="D51">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E51">
-        <v>0.42</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>44</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53">
-        <v>-1194</v>
-      </c>
-      <c r="D53">
-        <v>0.68</v>
-      </c>
-      <c r="E53">
-        <v>0.85</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H53">
-        <v>3</v>
-      </c>
-      <c r="I53" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>45</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54">
-        <v>-1360</v>
-      </c>
-      <c r="D54">
-        <v>0.61</v>
-      </c>
-      <c r="E54">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55">
-        <v>1350</v>
-      </c>
-      <c r="D55">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="E55">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>46</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56">
-        <v>-1293</v>
-      </c>
-      <c r="D56">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E56">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>-1211</v>
-      </c>
-      <c r="D57">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="E57">
-        <v>0.54</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>46</v>
-      </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>-1830</v>
-      </c>
-      <c r="D58">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="E58">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60">
-        <v>-1843</v>
-      </c>
-      <c r="D60">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E60">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>47</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61">
-        <v>-1930</v>
-      </c>
-      <c r="D61">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="E61">
-        <v>0.45</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>48</v>
-      </c>
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>48</v>
-      </c>
-      <c r="B63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>48</v>
-      </c>
-      <c r="B64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64">
-        <v>-2325</v>
-      </c>
-      <c r="D64">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="E64">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>49</v>
-      </c>
-      <c r="B65" t="s">
-        <v>169</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>49</v>
-      </c>
-      <c r="B66" t="s">
-        <v>170</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>49</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>50</v>
-      </c>
-      <c r="B68" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>50</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>50</v>
-      </c>
-      <c r="B70" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71">
-        <v>1370</v>
-      </c>
-      <c r="D71">
-        <v>0.159</v>
-      </c>
-      <c r="E71">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72">
-        <v>1877</v>
-      </c>
-      <c r="D72">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E72">
-        <v>0.01</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="I74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H75" s="5">
-        <v>3</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>73</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="5">
-        <v>2254</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="5">
-        <v>3</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>73</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="5">
-        <v>2643</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="5">
-        <v>2</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>73</v>
-      </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>74</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="5">
-        <v>2500</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H79" s="5">
-        <v>2</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>74</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2686</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H80" s="5">
-        <v>3</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>74</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81">
-        <v>3108</v>
-      </c>
-      <c r="D81" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="E81" s="7">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>74</v>
-      </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82">
-        <v>3483</v>
-      </c>
-      <c r="D82" s="7">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E82" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>74</v>
-      </c>
-      <c r="B83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83">
-        <v>5070</v>
-      </c>
-      <c r="D83">
-        <v>0.121</v>
-      </c>
-      <c r="E83">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>75</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
-      <c r="I84" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>75</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="5">
-        <v>5800</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H85" s="5">
-        <v>2</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>75</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" s="5">
-        <v>3300</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H86" s="5">
-        <v>3</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>75</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="5">
-        <v>4398</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" s="5">
-        <v>2</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>75</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>76</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="5">
-        <v>-2200</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H89" s="5">
-        <v>2</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>76</v>
-      </c>
-      <c r="B90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>76</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H91" s="5">
-        <v>2</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>76</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C92" s="5">
-        <v>4500</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H92" s="5">
-        <v>3</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>76</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="5">
-        <v>5200</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" s="5">
-        <v>3</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>76</v>
-      </c>
-      <c r="B94" t="s">
-        <v>239</v>
-      </c>
-      <c r="C94">
-        <v>5200</v>
-      </c>
-      <c r="D94">
-        <v>0.06</v>
-      </c>
-      <c r="E94">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="I94" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>76</v>
-      </c>
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>77</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="5">
-        <v>-3900</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H96" s="5">
-        <v>3</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>77</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="5">
-        <v>-3050</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H97" s="5">
-        <v>2</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>77</v>
-      </c>
-      <c r="B98" t="s">
-        <v>101</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>77</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C99" s="5">
-        <v>5500</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H99" s="5">
-        <v>2</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>77</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H100" s="5">
-        <v>3</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>78</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="5">
-        <v>-4500</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="5">
-        <v>3</v>
-      </c>
-      <c r="I101" s="5" t="s">
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+      <c r="L118" s="4" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>78</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="5">
-        <v>-3700</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H102" s="5">
-        <v>2</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>79</v>
-      </c>
-      <c r="B103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
-        <v>79</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="5">
-        <v>-5200</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H104" s="5">
-        <v>3</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>80</v>
-      </c>
-      <c r="B105" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>80</v>
-      </c>
-      <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>81</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>81</v>
-      </c>
-      <c r="B108" t="s">
-        <v>178</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>81</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>82</v>
-      </c>
-      <c r="B110" t="s">
-        <v>179</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>82</v>
-      </c>
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>180</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>82</v>
-      </c>
-      <c r="B113" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>83</v>
-      </c>
-      <c r="B114" t="s">
-        <v>181</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>83</v>
-      </c>
-      <c r="B115" t="s">
-        <v>182</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>83</v>
-      </c>
-      <c r="B116" t="s">
-        <v>113</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>83</v>
-      </c>
-      <c r="B117" t="s">
-        <v>183</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>83</v>
-      </c>
-      <c r="B118" t="s">
-        <v>114</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
